--- a/data/trans_dic/P25A_11_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_11_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos depresivos</t>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,27</t>
+          <t>1,13; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,12</t>
+          <t>0,93; 5,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,25</t>
+          <t>1,02; 6,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,74</t>
+          <t>0,47; 4,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,85</t>
+          <t>3,34; 9,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,62</t>
+          <t>3,67; 10,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,34</t>
+          <t>5,82; 13,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,4</t>
+          <t>4,44; 13,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,8</t>
+          <t>2,86; 7,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 7,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 9,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 7,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,22</t>
+          <t>0,65; 6,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,6</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,4</t>
+          <t>1,27; 7,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 9,86</t>
+          <t>1,91; 10,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,53</t>
+          <t>1,52; 7,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,08</t>
+          <t>1,31; 7,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,22</t>
+          <t>1,43; 7,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,98</t>
+          <t>4,9; 14,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,89</t>
+          <t>1,46; 5,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 6,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 11,24</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,0</t>
+          <t>0,0; 23,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,64</t>
+          <t>0,0; 22,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0,0; 20,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,12</t>
+          <t>0,0; 14,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 14,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,17</t>
+          <t>0,0; 15,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,41</t>
+          <t>0,0; 14,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 11,21</t>
+          <t>0,0; 19,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,79</t>
+          <t>0,0; 9,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 12,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 12,9</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>3,91%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,34%</t>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,7</t>
+          <t>1,69; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,53</t>
+          <t>1,01; 4,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,96</t>
+          <t>1,55; 5,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,93</t>
+          <t>1,62; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,37</t>
+          <t>2,6; 6,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,89</t>
+          <t>3,48; 7,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,61</t>
+          <t>4,08; 8,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 4,88</t>
+          <t>5,87; 12,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,61</t>
+          <t>2,53; 5,29</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 5,47</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 6,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12950</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9588</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9347</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30791</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27681</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36769</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46099</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43741</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37269</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48528</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55447</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4846; 29514</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3391; 21618</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3897; 26038</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 25374</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16971; 48130</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15463; 43577</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>23718; 54458</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24926; 74562</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26894; 67586</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22732; 58637</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33224; 72313</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35301; 85170</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9752</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5371</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10783</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18642</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14152</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12698</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11480</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39364</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23903</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18069</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22264</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>58006</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2323; 24990</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18777</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4088; 25079</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7878; 41305</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6485; 31352</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4415; 25389</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4805; 24351</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>21053; 63875</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11452; 42368</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8491; 34553</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11234; 40294</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>37762; 94643</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6692</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7286</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4895</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>10016</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17968</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17258</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16877</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12972</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12040</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21743</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19704</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1829; 20666</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16118</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2594; 29767</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>28788</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25359</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31313</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44943</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44531</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50327</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92156</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73732</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62623</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>75686</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>123468</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15038; 49640</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7708; 34842</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12235; 43224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16853; 58958</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>26819; 66383</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29171; 66309</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33556; 71025</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64689; 133582</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>48601; 101800</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43946; 87592</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54645; 103950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>91660; 167596</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
